--- a/data/trans_dic/P78C5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C5_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,0%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>78,84%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,28; 91,17</t>
+          <t>41,78; 91,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,29; 94,63</t>
+          <t>69,03; 94,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,65; 90,16</t>
+          <t>62,34; 89,74</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,18; 93,61</t>
+          <t>63,08; 93,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,71; 90,33</t>
+          <t>47,99; 89,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,13; 89,11</t>
+          <t>64,6; 88,47</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>69,33%</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 100,0</t>
+          <t>18,64; 100,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>78,18%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,4; 90,24</t>
+          <t>64,12; 89,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,93; 87,83</t>
+          <t>63,31; 86,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,08; 85,96</t>
+          <t>67,57; 85,05</t>
         </is>
       </c>
     </row>
